--- a/stroopdata.xlsx
+++ b/stroopdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work-project\my\trunk\ai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work-project\my\trunk\ai\P0-chenhangfeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -974,7 +974,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1150,8 +1150,8 @@
         <v>6.3600453988657879</v>
       </c>
       <c r="H8">
-        <f>H6/(E2/(22^0.5))</f>
-        <v>8.7643246623629736</v>
+        <f>H6/(E2/(23^0.5))</f>
+        <v>8.9613003726325839</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
